--- a/data_year/zb/工业/按行业分私营工业企业主要经济指标(2000-2002)/工业销售产值(现价).xlsx
+++ b/data_year/zb/工业/按行业分私营工业企业主要经济指标(2000-2002)/工业销售产值(现价).xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO4"/>
+  <dimension ref="B1:AO1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -635,379 +635,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>2000年</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>160.18191</v>
-      </c>
-      <c r="C2" t="n">
-        <v>234.81536</v>
-      </c>
-      <c r="D2" t="n">
-        <v>27.95061</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.14905</v>
-      </c>
-      <c r="F2" t="n">
-        <v>100.45555</v>
-      </c>
-      <c r="G2" t="n">
-        <v>281.43165</v>
-      </c>
-      <c r="H2" t="n">
-        <v>20.54713</v>
-      </c>
-      <c r="I2" t="n">
-        <v>77.83028</v>
-      </c>
-      <c r="J2" t="n">
-        <v>39.26215</v>
-      </c>
-      <c r="K2" t="n">
-        <v>214.65099</v>
-      </c>
-      <c r="L2" t="n">
-        <v>69.28485999999999</v>
-      </c>
-      <c r="M2" t="n">
-        <v>55.01942</v>
-      </c>
-      <c r="N2" t="n">
-        <v>272.05855</v>
-      </c>
-      <c r="O2" t="n">
-        <v>184.27602</v>
-      </c>
-      <c r="P2" t="n">
-        <v>20.71129</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>270.35528</v>
-      </c>
-      <c r="R2" t="n">
-        <v>135.4959</v>
-      </c>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="n">
-        <v>49.2194</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0.3041</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0.39718</v>
-      </c>
-      <c r="W2" t="n">
-        <v>19.5283</v>
-      </c>
-      <c r="X2" t="n">
-        <v>22.11455</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>106.04953</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>325.37422</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>141.65721</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>50.76174</v>
-      </c>
-      <c r="AC2" t="inlineStr"/>
-      <c r="AD2" t="n">
-        <v>4977.2538</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>492.05488</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>0.26993</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>124.71411</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>321.30895</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>358.33759</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>32.82856</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>121.91452</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>376.68902</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>80.22727999999999</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>171.93254</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>17.09419</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>2001年</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>239.74399</v>
-      </c>
-      <c r="C3" t="n">
-        <v>399.7481</v>
-      </c>
-      <c r="D3" t="n">
-        <v>50.16059</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.5059</v>
-      </c>
-      <c r="F3" t="n">
-        <v>174.51487</v>
-      </c>
-      <c r="G3" t="n">
-        <v>532.99257</v>
-      </c>
-      <c r="H3" t="n">
-        <v>83.74684999999999</v>
-      </c>
-      <c r="I3" t="n">
-        <v>115.81721</v>
-      </c>
-      <c r="J3" t="n">
-        <v>68.07347</v>
-      </c>
-      <c r="K3" t="n">
-        <v>344.62789</v>
-      </c>
-      <c r="L3" t="n">
-        <v>105.66278</v>
-      </c>
-      <c r="M3" t="n">
-        <v>101.25018</v>
-      </c>
-      <c r="N3" t="n">
-        <v>488.66637</v>
-      </c>
-      <c r="O3" t="n">
-        <v>269.19865</v>
-      </c>
-      <c r="P3" t="n">
-        <v>29.37117</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>431.54072</v>
-      </c>
-      <c r="R3" t="n">
-        <v>227.92902</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0.10033</v>
-      </c>
-      <c r="T3" t="n">
-        <v>79.00478</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0.7766</v>
-      </c>
-      <c r="V3" t="n">
-        <v>7.08386</v>
-      </c>
-      <c r="W3" t="n">
-        <v>34.38118</v>
-      </c>
-      <c r="X3" t="n">
-        <v>25.71361</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>183.30678</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>527.34718</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>237.23794</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>63.37497</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>0.08191</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>8403.822770000001</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>925.04711</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>1.46847</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>232.6468</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>556.37955</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>557.03333</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>39.49531</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>180.94151</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>603.84457</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>119.9102</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>334.62543</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>30.47102</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>366.02396</v>
-      </c>
-      <c r="C4" t="n">
-        <v>607.92551</v>
-      </c>
-      <c r="D4" t="n">
-        <v>69.85852</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.35414</v>
-      </c>
-      <c r="F4" t="n">
-        <v>237.50237</v>
-      </c>
-      <c r="G4" t="n">
-        <v>784.8332</v>
-      </c>
-      <c r="H4" t="n">
-        <v>123.93413</v>
-      </c>
-      <c r="I4" t="n">
-        <v>176.95469</v>
-      </c>
-      <c r="J4" t="n">
-        <v>101.10489</v>
-      </c>
-      <c r="K4" t="n">
-        <v>529.5013300000001</v>
-      </c>
-      <c r="L4" t="n">
-        <v>135.71957</v>
-      </c>
-      <c r="M4" t="n">
-        <v>145.68678</v>
-      </c>
-      <c r="N4" t="n">
-        <v>732.36528</v>
-      </c>
-      <c r="O4" t="n">
-        <v>390.44036</v>
-      </c>
-      <c r="P4" t="n">
-        <v>40.57787</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>632.56332</v>
-      </c>
-      <c r="R4" t="n">
-        <v>296.42997</v>
-      </c>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="n">
-        <v>111.00212</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0.2879</v>
-      </c>
-      <c r="V4" t="n">
-        <v>4.96046</v>
-      </c>
-      <c r="W4" t="n">
-        <v>65.23424</v>
-      </c>
-      <c r="X4" t="n">
-        <v>24.66296</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>246.98097</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>783.2735300000001</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>374.0088</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>121.20009</v>
-      </c>
-      <c r="AC4" t="inlineStr"/>
-      <c r="AD4" t="n">
-        <v>12494.52666</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>1428.85894</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>1.86137</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>335.62239</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>819.51947</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>832.01421</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>71.79376999999999</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>264.32472</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>889.25206</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>157.68151</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>538.12873</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>52.08253</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
